--- a/Factura Ejemplo.xlsx
+++ b/Factura Ejemplo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GIT\webPrestadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A90B1F-DC22-4D91-A69D-39F12E86C17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB974F46-A1F9-4969-AA93-5E78B1B270BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C278E9D2-5029-4102-A752-9D1FD7AD384D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Cantidad</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Valor Total</t>
   </si>
   <si>
-    <t>Perfumes</t>
-  </si>
-  <si>
     <t>SUBTOTAL 12%</t>
   </si>
   <si>
@@ -83,68 +80,22 @@
     <t>Paracetamol</t>
   </si>
   <si>
-    <t>Por el perfume</t>
-  </si>
-  <si>
-    <t>Por el Paracetamol</t>
-  </si>
-  <si>
     <t>Donacion de bitoallas</t>
   </si>
   <si>
     <t>Pago de matricula</t>
   </si>
   <si>
-    <t>Donaciones</t>
-  </si>
-  <si>
-    <t>Matricula</t>
-  </si>
-  <si>
     <t>Descuentos</t>
   </si>
   <si>
-    <t>Al subtotal de 28,50</t>
-  </si>
-  <si>
-    <t>Al subtotal de 28,51</t>
-  </si>
-  <si>
     <t>Botallas Plasticas</t>
   </si>
   <si>
-    <t>DUDAS</t>
-  </si>
-  <si>
-    <t>EL ICE SE LO CALCULA ANTES O DESPUES DE LOS DESCUENTOS</t>
-  </si>
-  <si>
-    <t>EL ICE SE LO CALCULA ANTES O DESPUES DEL IVA</t>
-  </si>
-  <si>
-    <t>Estaria bien el desgloce de los IVAs SUBTOTALES</t>
-  </si>
-  <si>
-    <t>Estaria bien el calculo de este ejemplo de factura</t>
-  </si>
-  <si>
     <t>EJEMPLO REAL DE UNA FACTURA QUE LO TENDRIA TODO</t>
   </si>
   <si>
-    <t>NECESITARIA ALGUNOS EJEMPLOS DE FACTURAS CON
-* CON DESCUENTOS
-* CON IVA
-* SIN IVA
-*NO SUJETO A IVA
-* EXCENTO DE IVA
-*ICE
-*IRBPNR (SE CALCULA ANTES O DESPUES DEL IVA,ICE)
-EJEMPLOS POR FAVOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* LA TEORIA Y EJMPLOS DE NOTAS DE CREDITO (SE QUE NACEN DE UNA FACTURA)
-* LA TEORIA Y EJEMPLOS DE NOTA DE DEBITO
-</t>
+    <t>Habitacion</t>
   </si>
 </sst>
 </file>
@@ -154,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,14 +144,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="20"/>
       <color theme="1"/>
@@ -229,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -252,101 +195,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -363,35 +224,8 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -709,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEF5F67-1DB3-470B-9717-E3588F60BD10}">
-  <dimension ref="B2:N35"/>
+  <dimension ref="B2:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,23 +557,23 @@
     <col min="4" max="4" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="1"/>
     <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -757,463 +591,207 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="F5" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6">
+        <v>100</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="6">
         <f>(D5-(D5*E5))*B5</f>
-        <v>28.5</v>
+        <v>90</v>
       </c>
       <c r="H5" s="3">
         <f>D5*E5</f>
-        <v>0.75</v>
-      </c>
-      <c r="I5" s="13">
+        <v>10</v>
+      </c>
+      <c r="I5" s="11">
         <f>H5+H6+H7+H8</f>
-        <v>4.0250000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
-        <v>500</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8">
+        <v>13.275</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6">
         <v>0.25</v>
       </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
         <f>(D6-(D6*E6))*B6</f>
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <f>D6*E6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="17"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
-        <v>1500</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6">
         <v>12.5</v>
       </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
         <f>(D7-(D7*E7))*B7</f>
-        <v>18750</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <f>D7*E7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="20"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6">
         <v>65.5</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>0.05</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <f>(D8-(D8*E8))*B8</f>
-        <v>62.225000000000001</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <f>D8*E8</f>
         <v>3.2750000000000004</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="20"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
-        <v>5000</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6">
         <v>0.2</v>
       </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
         <f>(D9-(D9*E9))*B9</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <f>D9*E9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="20"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D10" s="11" t="s">
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="8">
-        <f>F5+F9</f>
-        <v>1028.5</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="20"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="8">
-        <f>F6</f>
-        <v>125</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="8">
-        <f>F7</f>
-        <v>18750</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="20"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="8">
-        <f>F8</f>
-        <v>62.225000000000001</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="20"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="8">
-        <f>I5</f>
-        <v>4.0250000000000004</v>
-      </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="20"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="8">
-        <f>F10*0.12</f>
-        <v>123.42</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="20"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="8">
-        <f>F5*0.15</f>
-        <v>4.2749999999999995</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="20"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="8">
-        <f>F9*0.1</f>
-        <v>100</v>
-      </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="20"/>
-    </row>
-    <row r="18" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="10">
+      <c r="E18" s="10"/>
+      <c r="F18" s="8">
         <f>SUM(F10:F17)</f>
-        <v>20197.445</v>
-      </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="20"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J19" s="18"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="20"/>
-    </row>
-    <row r="20" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="23"/>
-    </row>
-    <row r="21" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="J21" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="17"/>
-    </row>
-    <row r="22" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="20"/>
-    </row>
-    <row r="23" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="20"/>
-    </row>
-    <row r="24" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="20"/>
-    </row>
-    <row r="25" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="20"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="20"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J27" s="18"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="20"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J28" s="18"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="20"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="20"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J30" s="18"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="20"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J31" s="18"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="20"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J32" s="18"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="20"/>
-    </row>
-    <row r="33" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J33" s="18"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="20"/>
-    </row>
-    <row r="34" spans="10:14" x14ac:dyDescent="0.25">
-      <c r="J34" s="18"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="20"/>
-    </row>
-    <row r="35" spans="10:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J35" s="21"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="23"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="J6:N20"/>
-    <mergeCell ref="J21:N35"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="I5:I9"/>
+  <mergeCells count="11">
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="I5:I9"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
   </mergeCells>
